--- a/data/trans_dic/P35A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P35A_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha dado un atracón de alcohol en las últimas 2 semanas alguna o varias veces</t>
+          <t>Población que se ha dado un atracón de alcohol en las últimas 2 semanas alguna o varias veces (tasa de respuesta: 99,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>29,26%</t>
+          <t>15,84%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>29,84%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,71%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>26,01%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>12,97%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>25,48%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>11,16%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>12,62%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>8,68%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>13,75%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>14,42%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>8,25%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>9,82%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,64; 40,26</t>
+          <t>10,19; 22,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,89; 34,09</t>
+          <t>4,65; 14,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,5; 42,48</t>
+          <t>11,26; 24,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,09; 32,66</t>
+          <t>9,54; 25,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,29; 32,87</t>
+          <t>4,62; 16,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,62; 35,08</t>
+          <t>4,2; 15,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,75; 30,35</t>
+          <t>5,51; 14,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,15; 36,31</t>
+          <t>4,76; 15,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,8; 33,56</t>
+          <t>6,35; 15,45</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,05; 29,42</t>
+          <t>8,09; 19,69</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,91; 33,84</t>
+          <t>3,52; 13,03</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,89; 30,01</t>
+          <t>6,48; 17,4</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>8,54; 16,68</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>5,8; 12,75</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>9,72; 18,2</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>10,26; 19,52</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>4,95; 12,88</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>6,24; 15,34</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>14,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>29,76%</t>
+          <t>16,21%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,94%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29,62%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>13,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>24,88%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>7,03%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>10,12%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>11,51%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>11,88%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>13,97%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>10,16%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>10,46%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,12; 40,74</t>
+          <t>8,62; 24,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,19; 39,24</t>
+          <t>11,45; 22,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,39; 34,96</t>
+          <t>9,89; 20,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,2; 42,53</t>
+          <t>7,77; 19,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,58; 20,66</t>
+          <t>9,02; 23,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,89; 28,37</t>
+          <t>8,04; 21,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,34; 32,42</t>
+          <t>2,25; 9,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,67; 25,23</t>
+          <t>3,29; 10,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,31; 30,23</t>
+          <t>5,13; 12,18</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,34; 32,57</t>
+          <t>9,89; 21,97</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,91; 31,75</t>
+          <t>2,62; 9,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,31; 33,51</t>
+          <t>3,68; 11,4</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>6,58; 16,3</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>8,62; 15,15</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>9,1; 15,63</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>10,06; 18,65</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>6,73; 14,66</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>6,97; 14,54</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>11,4%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>28,04%</t>
+          <t>20,25%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>20,59%</t>
+          <t>8,88%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>7,5%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>9,01%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>8,34%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>13,97%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>9,57%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>10,23%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,68; 25,4</t>
+          <t>7,48; 17,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,74; 25,38</t>
+          <t>8,44; 17,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,78; 28,25</t>
+          <t>9,0; 17,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,77; 37,56</t>
+          <t>14,76; 27,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,35; 15,53</t>
+          <t>10,38; 20,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,12; 24,25</t>
+          <t>7,52; 16,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,94; 15,68</t>
+          <t>2,02; 6,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,02; 16,32</t>
+          <t>3,81; 9,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,12; 18,64</t>
+          <t>2,64; 7,01</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,73; 22,79</t>
+          <t>5,25; 11,6</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,31; 20,85</t>
+          <t>1,65; 6,55</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,11; 26,53</t>
+          <t>5,47; 13,32</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>4,99; 10,71</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>6,95; 11,86</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>6,27; 11,01</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>11,14; 17,45</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>6,88; 12,64</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>7,53; 13,6</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,02%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>12,33%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>6,87%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6,8%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>6,4%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>7,23%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>10,87%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>7,56%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>9,67%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,41; 20,45</t>
+          <t>6,95; 15,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,17; 16,21</t>
+          <t>5,47; 12,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,27; 22,51</t>
+          <t>8,7; 16,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,32; 31,95</t>
+          <t>13,0; 23,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,55; 14,16</t>
+          <t>6,23; 14,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,08; 17,59</t>
+          <t>8,35; 17,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,45; 9,8</t>
+          <t>1,65; 5,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,72; 26,24</t>
+          <t>2,71; 7,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,77; 16,57</t>
+          <t>1,22; 4,35</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,95; 15,23</t>
+          <t>2,01; 6,19</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,3; 16,24</t>
+          <t>2,68; 8,58</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,28; 26,88</t>
+          <t>4,01; 10,91</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>4,71; 9,53</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>4,6; 9,07</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>5,24; 9,75</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>8,38; 14,07</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>5,43; 10,62</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>7,05; 12,96</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>12,11%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>9,09%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7,82%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,9%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>3,1%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>5,51%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,85%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>2,64%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>4,18%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>7,19%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>5,84%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>6,62%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,64; 10,96</t>
+          <t>1,66; 6,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,32; 12,98</t>
+          <t>2,9; 8,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,81; 16,32</t>
+          <t>4,58; 11,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,4; 28,66</t>
+          <t>8,07; 18,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,59</t>
+          <t>5,37; 14,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,56</t>
+          <t>4,43; 12,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,82; 8,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,64; 17,93</t>
+          <t>0,0; 1,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,0; 7,1</t>
+          <t>0,3; 2,73</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,87; 8,59</t>
+          <t>0,9; 5,6</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,32; 11,81</t>
+          <t>0,96; 5,8</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,8; 22,13</t>
+          <t>2,97; 9,47</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,82; 3,33</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>1,41; 4,31</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>2,74; 6,38</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>4,69; 10,75</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>3,6; 8,45</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>4,49; 9,27</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>0,41%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0,66%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>7,06%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>3,76%</t>
-        </is>
-      </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1,13%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1,51%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1,86%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>4,64%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1,38%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>3,56%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,09; 11,34</t>
+          <t>0,53; 5,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,06; 10,73</t>
+          <t>1,17; 5,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,96; 12,97</t>
+          <t>1,95; 8,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,56</t>
+          <t>4,48; 14,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,39</t>
+          <t>0,52; 4,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,13</t>
+          <t>3,62; 11,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>0,0; 1,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,96</t>
+          <t>0,0; 2,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,43; 8,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,14; 8,64</t>
+          <t>0,37; 4,75</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,38; 9,73</t>
+          <t>0,0; 3,72</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,62; 9,59</t>
+          <t>0,0; 3,03</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>0,28; 2,43</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 2,84</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>0,83; 3,4</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>2,76; 7,89</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 3,1</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>2,17; 5,84</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>14,95%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>6,35%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>6,54%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>6,65%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>7,76%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>10,76%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>7,05%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>8,35%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,34; 19,58</t>
+          <t>8,05; 12,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,4; 17,89</t>
+          <t>7,55; 10,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,44; 21,29</t>
+          <t>9,91; 13,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,35; 24,63</t>
+          <t>12,82; 17,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,27; 12,35</t>
+          <t>8,28; 12,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,15; 16,31</t>
+          <t>8,47; 12,63</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,77; 14,24</t>
+          <t>2,52; 4,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,88; 17,2</t>
+          <t>3,34; 5,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,48; 16,22</t>
+          <t>3,19; 5,28</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>12,31; 16,24</t>
+          <t>5,4; 8,41</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>13,6; 17,7</t>
+          <t>2,92; 5,14</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>15,03; 20,72</t>
+          <t>4,97; 7,83</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>5,44; 7,85</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>5,73; 7,65</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>6,68; 8,77</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>9,43; 12,13</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>6,01; 8,28</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>7,13; 9,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha dado un atracón de alcohol en las últimas 2 semanas alguna o varias veces (tasa de respuesta: 99,6%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>78913</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>44280</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>86471</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>72472</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3940</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3692</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>43121</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>45389</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>51257</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>61517</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2618</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>4303</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>122034</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>89669</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>137728</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>133988</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>6558</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>7995</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>50755; 112863</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>24206; 77258</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>55884; 121900</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>43411; 114767</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1944; 6769</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1797; 6717</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>25818; 69079</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>24385; 78549</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>32113; 78058</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>38351; 93408</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1317; 4871</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2498; 6708</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>82597; 161263</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>59909; 131673</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>97405; 182348</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>95295; 181353</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>3936; 10236</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>5078; 12480</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>83273</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>91148</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>88778</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>76583</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7316</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>6493</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>26673</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>31776</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>43025</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>74156</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2484</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3196</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>109946</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>122924</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>131803</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>150740</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>9800</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>9689</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>49416; 142489</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>64385; 128341</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>58768; 122160</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>45039; 114061</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4462; 11376</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3792; 10135</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>11570; 47174</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>16647; 53744</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>26439; 62741</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>49382; 109714</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1232; 4370</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1671; 5183</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>71561; 177131</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>92070; 161821</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>100963; 173433</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>108605; 201277</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>6488; 14131</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>6455; 13474</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>77574</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>81344</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>85087</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>136973</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8936</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6920</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>26337</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>43347</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>30287</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>57466</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1939</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>4869</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>103911</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>124692</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>115373</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>194439</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>10875</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>11790</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>50859; 118334</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>56820; 117721</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>60631; 117883</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>99795; 183287</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6222; 12137</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4545; 10236</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14230; 46833</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>27148; 64540</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18717; 49772</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>37567; 82961</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>887; 3516</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2999; 7308</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>69188; 148389</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>96296; 164156</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>86816; 152376</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>154944; 242835</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>7816; 14369</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>8677; 15681</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>66220</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>53511</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>77986</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>116987</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>5632</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>6904</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>24177</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>30241</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>15046</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>24218</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2722</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3643</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>90397</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>83752</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>93032</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>141205</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>8354</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>10547</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>44814; 101870</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>35113; 83375</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>54847; 105109</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>84637; 155560</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3615; 8522</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>4678; 9813</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>11303; 40883</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>18040; 46705</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>8031; 28562</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>13049; 40156</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1403; 4497</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2125; 5785</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>62606; 126661</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>60203; 118657</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>67374; 125472</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>108924; 182894</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>5997; 11727</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>7684; 14139</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>18446</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>24903</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>36648</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>59660</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4046</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3373</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1543</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5299</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>12772</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1386</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2567</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>18446</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>26446</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>41947</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>72431</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>5432</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>5939</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>8172; 32329</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>14548; 41404</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>22342; 54362</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>39747; 92483</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2389; 6542</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1908; 5437</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7757</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1553; 14080</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4648; 28776</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>467; 2816</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1384; 4415</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>8186; 33266</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>14107; 43207</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>27501; 64020</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>47237; 108267</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>3353; 7865</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>4032; 8318</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>11180</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>13696</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>22413</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>48904</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>846</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3295</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2946</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>10851</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>577</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>14125</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>18260</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>22413</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>59755</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>1512</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>3871</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2857; 29522</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>6025; 28442</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>10171; 42934</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>25390; 81534</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>245; 2325</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1650; 5381</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13701</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15625</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>2660; 34314</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2346</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1916</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>3526; 30521</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>8675; 34291</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>9959; 41037</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>35602; 101768</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>534; 3408</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>2358; 6347</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>335606</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>308883</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>397382</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>511579</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>30716</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>30677</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>123254</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>156860</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>144915</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>240979</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>11815</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>19154</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>458859</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>465742</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>542296</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>752558</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>42532</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>49830</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>276014; 436245</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>257824; 367832</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>337361; 468698</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>438436; 596423</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>24910; 37385</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>25009; 37288</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>90594; 158495</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>119859; 201469</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>114463; 189466</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>193076; 300730</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>8827; 15537</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>14992; 23633</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>382109; 551165</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>401261; 535888</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>467236; 612858</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>659872; 848223</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>36259; 49924</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>42549; 57753</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
